--- a/[2분반]2013136051_백윤기_마이크로프로세서및실습_재료구매신청서(최종).xlsx
+++ b/[2분반]2013136051_백윤기_마이크로프로세서및실습_재료구매신청서(최종).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,24 +94,6 @@
     <t>http://artrobot.co.kr/front/php/product.php?product_no=817&amp;main_cate_no=&amp;display_group=</t>
   </si>
   <si>
-    <t xml:space="preserve">30mm 녹색 소형 LED 아케이드 스위치버튼 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30mm 노랑색 소형 LED 아케이드 스위치버튼 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30mm 빨간색 소형 LED 아케이드 스위치버튼 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">30mm 파란색 소형 LED 아케이드 스위치버튼 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mechasolution.com/shop/goods/goods_list.php?&amp;category=060005</t>
-  </si>
-  <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=444</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,10 +118,6 @@
     <t>4.5V-5mW 레이저포인터 모듈(RED)</t>
   </si>
   <si>
-    <t>http://mechasolution.com/shop/goods/goods_list.php?&amp;category=060005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=341&amp;main_cate_no=&amp;display_group=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,10 +126,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5색 투명커버 버튼 스위치 세트 ( 5 Color Tactile Button Assortment)</t>
+  </si>
+  <si>
+    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=9302&amp;category=060005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6mm 녹색 소형 LED 아케이드 스위치버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6mm 노랑색 소형 LED 아케이드 스위치버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6mm 빨간색 소형 LED 아케이드 스위치버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.6mm 파란색 소형 LED 아케이드 스위치버튼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=9306&amp;category=060005</t>
+  </si>
+  <si>
+    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=9304&amp;category=060005</t>
+  </si>
+  <si>
+    <t>http://mechasolution.com/shop/goods/goods_view.php?goodsno=9305&amp;category=060005</t>
+  </si>
+  <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=343&amp;main_cate_no=&amp;display_group=</t>
-  </si>
-  <si>
-    <t>5색 투명커버 버튼 스위치 세트 ( 5 Color Tactile Button Assortment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -343,9 +351,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -656,7 +664,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -673,66 +681,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>2013136051</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -761,21 +769,21 @@
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>200</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <f>(C7*D7)</f>
-        <v>800</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>28</v>
+        <v>1200</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -797,7 +805,7 @@
         <v>39000</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -805,8 +813,8 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>35</v>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>2000</v>
@@ -817,8 +825,8 @@
       <c r="E9" s="2">
         <v>2000</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>34</v>
+      <c r="F9" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -833,12 +841,13 @@
         <v>2800</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>11200</v>
-      </c>
-      <c r="F10" s="8" t="s">
+        <f>C10*D10</f>
+        <v>16800</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="2"/>
@@ -848,19 +857,20 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>3300</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
+        <f>C11*D11</f>
+        <v>2200</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -869,19 +879,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>3300</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>23</v>
+        <f t="shared" ref="E12:E14" si="1">C12*D12</f>
+        <v>2200</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -890,19 +901,20 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>3300</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -911,19 +923,20 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>3300</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -932,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>6900</v>
@@ -943,8 +956,8 @@
       <c r="E15" s="2">
         <v>6900</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>32</v>
+      <c r="F15" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -953,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>3500</v>
@@ -964,8 +977,8 @@
       <c r="E16" s="2">
         <v>14000</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>26</v>
+      <c r="F16" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -973,21 +986,21 @@
       <c r="A17" s="2">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>30</v>
+      <c r="B17" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="2">
         <v>2800</v>
       </c>
       <c r="D17" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2">
         <f>C17*D17</f>
-        <v>11200</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>33</v>
+        <v>16800</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1000,7 +1013,7 @@
       </c>
       <c r="E18" s="1">
         <f>SUM(E7:E17)</f>
-        <v>98300</v>
+        <v>105500</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1017,11 +1030,12 @@
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
     <hyperlink ref="F7" r:id="rId2"/>
-    <hyperlink ref="F14" r:id="rId3"/>
-    <hyperlink ref="F15" r:id="rId4"/>
-    <hyperlink ref="F17" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F17" r:id="rId4"/>
+    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/[2분반]2013136051_백윤기_마이크로프로세서및실습_재료구매신청서(최종).xlsx
+++ b/[2분반]2013136051_백윤기_마이크로프로세서및실습_재료구매신청서(최종).xlsx
@@ -115,17 +115,10 @@
     <t>Cds CELL(GL5537) 5Pie</t>
   </si>
   <si>
-    <t>4.5V-5mW 레이저포인터 모듈(RED)</t>
-  </si>
-  <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=341&amp;main_cate_no=&amp;display_group=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">http://www.eleparts.co.kr/EPX36FWJ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5색 투명커버 버튼 스위치 세트 ( 5 Color Tactile Button Assortment)</t>
   </si>
   <si>
@@ -159,6 +152,58 @@
   </si>
   <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=343&amp;main_cate_no=&amp;display_group=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPX369RK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3V-5mW </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2C2C2C"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레이저포인터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2C2C2C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2C2C2C"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF2C2C2C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(RED)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +289,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF2C2C2C"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -368,6 +421,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,7 +717,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -681,66 +734,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <v>2013136051</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -814,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>2000</v>
@@ -825,8 +878,8 @@
       <c r="E9" s="2">
         <v>2000</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>37</v>
+      <c r="F9" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -857,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>2200</v>
@@ -870,7 +923,7 @@
         <v>2200</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -879,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>2200</v>
@@ -892,7 +945,7 @@
         <v>2200</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -901,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>2200</v>
@@ -914,7 +967,7 @@
         <v>2200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -923,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>2200</v>
@@ -936,7 +989,7 @@
         <v>2200</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -957,7 +1010,7 @@
         <v>6900</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -987,20 +1040,20 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" s="2">
         <f>C17*D17</f>
-        <v>16800</v>
+        <v>18000</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1013,7 +1066,7 @@
       </c>
       <c r="E18" s="1">
         <f>SUM(E7:E17)</f>
-        <v>105500</v>
+        <v>106700</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
